--- a/examples/datasheet/随机宝箱.xlsx
+++ b/examples/datasheet/随机宝箱.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\Cpp\inner-class\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\datasheet\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -706,7 +706,7 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -728,84 +728,84 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C1" t="s">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="G1" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="H1" t="s">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I1" t="s">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="J1" t="s">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="K1" t="s">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="L1" t="s">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="M1" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="G2" t="s">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="H2" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="I2" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="J2" t="s">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="K2" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="M2" t="s">
-        <v>16</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:23" x14ac:dyDescent="0.2">

--- a/examples/datasheet/随机宝箱.xlsx
+++ b/examples/datasheet/随机宝箱.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Code\game-repo\TAKSi\examples\datasheet\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18690" windowHeight="7830"/>
+    <workbookView windowWidth="22860" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +15,46 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Time</t>
+  </si>
+  <si>
+    <t>Repeat</t>
+  </si>
+  <si>
+    <t>GoodsID1</t>
+  </si>
+  <si>
+    <t>Num1</t>
+  </si>
+  <si>
+    <t>Probability1</t>
+  </si>
+  <si>
+    <t>GoodsID2</t>
+  </si>
+  <si>
+    <t>Num2</t>
+  </si>
+  <si>
+    <t>Probability2</t>
+  </si>
+  <si>
+    <t>GoodsID3</t>
+  </si>
+  <si>
+    <t>Num3</t>
+  </si>
+  <si>
+    <t>Probability3</t>
+  </si>
   <si>
     <t>string</t>
   </si>
@@ -34,45 +68,6 @@
     <t>uint32</t>
   </si>
   <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>Total</t>
-  </si>
-  <si>
-    <t>Time</t>
-  </si>
-  <si>
-    <t>Repeat</t>
-  </si>
-  <si>
-    <t>GoodsID1</t>
-  </si>
-  <si>
-    <t>Num1</t>
-  </si>
-  <si>
-    <t>Probability1</t>
-  </si>
-  <si>
-    <t>GoodsID2</t>
-  </si>
-  <si>
-    <t>Num2</t>
-  </si>
-  <si>
-    <t>Probability2</t>
-  </si>
-  <si>
-    <t>GoodsID3</t>
-  </si>
-  <si>
-    <t>Num3</t>
-  </si>
-  <si>
-    <t>Probability3</t>
-  </si>
-  <si>
     <t>奖励总数</t>
   </si>
   <si>
@@ -148,228 +143,223 @@
     <t>程序导出参数</t>
   </si>
   <si>
+    <t>class_name</t>
+  </si>
+  <si>
     <t>BoxProbabilityDefine</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>comment</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>range</t>
+    </r>
+  </si>
+  <si>
     <t>5,-1,3</t>
   </si>
   <si>
     <t>生成一个内部的类型</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>class</t>
+    </r>
+  </si>
+  <si>
     <t>ProbabilityGoodsDefine</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>inner</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>type</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>_</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>name</t>
+    </r>
+  </si>
+  <si>
     <t>ProbabilityGoods</t>
-  </si>
-  <si>
-    <t>class_name</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comment</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>get</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>keys</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>range</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -378,36 +368,352 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -415,31 +721,317 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -697,19 +1289,19 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
     <col min="3" max="3" width="9.875" customWidth="1"/>
@@ -726,91 +1318,91 @@
     <col min="20" max="22" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="E1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="F1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="G1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="H1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="I1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
       </c>
-      <c r="J1" t="s">
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
         <v>13</v>
       </c>
-      <c r="K1" t="s">
+      <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="L1" t="s">
+      <c r="C2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s">
         <v>15</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
         <v>16</v>
       </c>
+      <c r="G2" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>16</v>
+      </c>
+      <c r="M2" t="s">
+        <v>16</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
         <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>0</v>
-      </c>
-      <c r="F2" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>3</v>
-      </c>
-      <c r="H2" t="s">
-        <v>0</v>
-      </c>
-      <c r="I2" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" t="s">
-        <v>3</v>
-      </c>
-      <c r="M2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
@@ -849,7 +1441,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
@@ -890,7 +1482,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13">
       <c r="A5" s="1" t="s">
         <v>33</v>
       </c>
@@ -931,7 +1523,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="1" t="s">
         <v>37</v>
       </c>
@@ -972,93 +1564,86 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.2">
-      <c r="E14" s="2"/>
-      <c r="N14" s="2"/>
-      <c r="Q14" s="2"/>
-      <c r="T14" s="2"/>
-      <c r="W14" s="2"/>
+    <row r="14" spans="5:23">
+      <c r="E14" s="3"/>
+      <c r="N14" s="3"/>
+      <c r="Q14" s="3"/>
+      <c r="T14" s="3"/>
+      <c r="W14" s="3"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="3" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="$A4:$XFD4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
     <col min="3" max="3" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:2">
       <c r="A1" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:2">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="3" t="s">
-        <v>48</v>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
+        <v>44</v>
       </c>
       <c r="B3" s="1"/>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="3" t="s">
+    <row r="4" spans="1:3">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" t="s">
         <v>49</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
-      </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="3" t="s">
+    <row r="6" spans="1:2">
+      <c r="A6" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="3" t="s">
+      <c r="B6" t="s">
         <v>51</v>
-      </c>
-      <c r="B6" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/examples/datasheet/随机宝箱.xlsx
+++ b/examples/datasheet/随机宝箱.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22860" windowHeight="11835"/>
+    <workbookView windowWidth="23940" windowHeight="11655" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="BoxProbabilityDefine" sheetId="1" r:id="rId1"/>
     <sheet name="@meta" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>ID</t>
   </si>
@@ -138,105 +138,6 @@
   </si>
   <si>
     <t>Soldier3</t>
-  </si>
-  <si>
-    <t>程序导出参数</t>
-  </si>
-  <si>
-    <t>class_name</t>
-  </si>
-  <si>
-    <t>BoxProbabilityDefine</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>class</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>comment</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>range</t>
-    </r>
-  </si>
-  <si>
-    <t>5,-1,3</t>
-  </si>
-  <si>
-    <t>生成一个内部的类型</t>
   </si>
   <si>
     <r>
@@ -354,12 +255,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,15 +269,51 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -384,51 +321,35 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -442,16 +363,24 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -466,8 +395,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -475,37 +405,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -528,6 +443,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -540,13 +509,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -558,31 +581,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -594,121 +611,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -719,30 +634,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -770,6 +661,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -781,6 +696,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -802,15 +726,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -825,10 +740,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -837,142 +752,152 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1297,279 +1222,280 @@
   <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="2" max="2" width="9.375" style="1" customWidth="1"/>
-    <col min="3" max="3" width="9.875" customWidth="1"/>
-    <col min="4" max="4" width="11" customWidth="1"/>
+    <col min="1" max="1" width="6.375" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="10" customWidth="1"/>
-    <col min="7" max="7" width="11.25" customWidth="1"/>
+    <col min="6" max="6" width="9.875" customWidth="1"/>
+    <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="10" customWidth="1"/>
-    <col min="10" max="10" width="11.25" customWidth="1"/>
+    <col min="9" max="9" width="9.875" customWidth="1"/>
+    <col min="10" max="10" width="12" customWidth="1"/>
     <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="10" customWidth="1"/>
-    <col min="13" max="13" width="11.25" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="12" customWidth="1"/>
     <col min="20" max="22" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
-      <c r="A1" t="s">
+    <row r="1" ht="15.75" spans="1:13">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="J1" t="s">
+      <c r="J1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="K1" t="s">
+      <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" t="s">
+      <c r="M1" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:13">
-      <c r="A2" t="s">
+    <row r="2" ht="15.75" spans="1:13">
+      <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L2" t="s">
+      <c r="L2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="4" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
+    <row r="3" ht="15.75" spans="1:13">
+      <c r="A3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="G3" t="s">
+      <c r="G3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H3" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I3" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J3" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K3" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="L3" t="s">
+      <c r="L3" s="4" t="s">
         <v>27</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
+    <row r="4" ht="17.25" spans="1:13">
+      <c r="A4" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="1">
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="6">
         <v>1400</v>
       </c>
-      <c r="D4" s="1">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="6">
         <v>1000</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="6">
         <v>5000</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H4" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="6">
         <v>1000</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K4" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="6">
         <v>10</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" s="1" t="s">
+    <row r="5" ht="17.25" spans="1:13">
+      <c r="A5" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="6">
         <v>1800</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="6">
         <v>2000</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="6">
         <v>5000</v>
       </c>
-      <c r="H5" t="s">
+      <c r="H5" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="6">
         <v>5</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="6">
         <v>1000</v>
       </c>
-      <c r="K5" t="s">
+      <c r="K5" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="6">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" s="1" t="s">
+    <row r="6" ht="17.25" spans="1:13">
+      <c r="A6" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="1">
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="6">
         <v>2400</v>
       </c>
-      <c r="D6" s="1">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="6">
         <v>3000</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="6">
         <v>5000</v>
       </c>
-      <c r="H6" t="s">
+      <c r="H6" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="6">
         <v>1000</v>
       </c>
-      <c r="K6" t="s">
+      <c r="K6" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="6">
         <v>10</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="5:23">
-      <c r="E14" s="3"/>
-      <c r="N14" s="3"/>
-      <c r="Q14" s="3"/>
-      <c r="T14" s="3"/>
-      <c r="W14" s="3"/>
+      <c r="E14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1581,13 +1507,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="5" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -1595,50 +1521,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="1"/>
+      <c r="B1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="2" t="s">
+      <c r="B2" t="s">
         <v>44</v>
-      </c>
-      <c r="B3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B5" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="B6" t="s">
-        <v>51</v>
       </c>
     </row>
   </sheetData>

--- a/examples/datasheet/随机宝箱.xlsx
+++ b/examples/datasheet/随机宝箱.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23940" windowHeight="11655" activeTab="1"/>
+    <workbookView windowWidth="23715" windowHeight="11550" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BoxProbabilityDefine" sheetId="1" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
   <si>
     <t>ID</t>
   </si>
@@ -140,114 +140,19 @@
     <t>Soldier3</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>class</t>
-    </r>
+    <t>InnerTypeClass</t>
   </si>
   <si>
     <t>ProbabilityGoodsDefine</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>inner</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>type</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>_</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="等线"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>name</t>
-    </r>
+    <t>InnerFieldName</t>
   </si>
   <si>
     <t>ProbabilityGoods</t>
+  </si>
+  <si>
+    <t>UniqueFields</t>
   </si>
 </sst>
 </file>
@@ -255,10 +160,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -298,15 +203,114 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,8 +324,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -329,106 +334,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -443,13 +348,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -461,169 +498,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -634,6 +539,69 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,8 +622,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -669,222 +639,160 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1223,13 +1131,13 @@
   <dimension ref="A1:W14"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
     <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.875" style="3" customWidth="1"/>
     <col min="3" max="3" width="8.875" customWidth="1"/>
     <col min="4" max="4" width="10.875" customWidth="1"/>
     <col min="5" max="5" width="9.625" customWidth="1"/>
@@ -1245,257 +1153,257 @@
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="3" t="s">
+      <c r="K1" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="M1" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:13">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="B2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:13">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="G3" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="J3" s="4" t="s">
+      <c r="J3" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="K3" s="4" t="s">
+      <c r="K3" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="L3" s="4" t="s">
+      <c r="L3" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="M3" s="4" t="s">
+      <c r="M3" s="5" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:13">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="6">
         <v>1</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="7">
         <v>1400</v>
       </c>
-      <c r="D4" s="5">
+      <c r="D4" s="6">
         <v>1</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="6">
+      <c r="F4" s="7">
         <v>1000</v>
       </c>
-      <c r="G4" s="6">
+      <c r="G4" s="7">
         <v>5000</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="7">
         <v>5</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="7">
         <v>1000</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="7">
         <v>10</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:13">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="B5" s="5">
+      <c r="B5" s="6">
         <v>2</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="7">
         <v>1800</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
-      <c r="E5" s="6" t="s">
+      <c r="E5" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="6">
+      <c r="F5" s="7">
         <v>2000</v>
       </c>
-      <c r="G5" s="6">
+      <c r="G5" s="7">
         <v>5000</v>
       </c>
-      <c r="H5" s="6" t="s">
+      <c r="H5" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="I5" s="6">
+      <c r="I5" s="7">
         <v>5</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="7">
         <v>1000</v>
       </c>
-      <c r="K5" s="6" t="s">
+      <c r="K5" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="L5" s="6">
+      <c r="L5" s="7">
         <v>10</v>
       </c>
-      <c r="M5" s="6">
+      <c r="M5" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:13">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="B6" s="5">
+      <c r="B6" s="6">
         <v>3</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="7">
         <v>2400</v>
       </c>
-      <c r="D6" s="5">
+      <c r="D6" s="6">
         <v>1</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="F6" s="6">
+      <c r="F6" s="7">
         <v>3000</v>
       </c>
-      <c r="G6" s="6">
+      <c r="G6" s="7">
         <v>5000</v>
       </c>
-      <c r="H6" s="6" t="s">
+      <c r="H6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="I6" s="6">
+      <c r="I6" s="7">
         <v>5</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="7">
         <v>1000</v>
       </c>
-      <c r="K6" s="6" t="s">
+      <c r="K6" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="7">
         <v>10</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="7">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="5:23">
-      <c r="E14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="W14" s="7"/>
+      <c r="E14" s="8"/>
+      <c r="N14" s="8"/>
+      <c r="Q14" s="8"/>
+      <c r="T14" s="8"/>
+      <c r="W14" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1507,13 +1415,13 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="1" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="16.5" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
@@ -1524,7 +1432,7 @@
       <c r="A1" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>42</v>
       </c>
     </row>
@@ -1532,8 +1440,16 @@
       <c r="A2" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/examples/datasheet/随机宝箱.xlsx
+++ b/examples/datasheet/随机宝箱.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23715" windowHeight="11550" activeTab="1"/>
+    <workbookView windowWidth="24465" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="BoxProbabilityDefine" sheetId="1" r:id="rId1"/>
@@ -15,11 +15,29 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
   <si>
     <t>ID</t>
   </si>
   <si>
+    <t>奖励总数</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>是否可重复</t>
+  </si>
+  <si>
+    <t>物品id</t>
+  </si>
+  <si>
+    <t>物品数量</t>
+  </si>
+  <si>
+    <t>物品概率</t>
+  </si>
+  <si>
     <t>Total</t>
   </si>
   <si>
@@ -29,31 +47,31 @@
     <t>Repeat</t>
   </si>
   <si>
-    <t>GoodsID1</t>
-  </si>
-  <si>
-    <t>Num1</t>
-  </si>
-  <si>
-    <t>Probability1</t>
-  </si>
-  <si>
-    <t>GoodsID2</t>
-  </si>
-  <si>
-    <t>Num2</t>
-  </si>
-  <si>
-    <t>Probability2</t>
-  </si>
-  <si>
-    <t>GoodsID3</t>
-  </si>
-  <si>
-    <t>Num3</t>
-  </si>
-  <si>
-    <t>Probability3</t>
+    <t>GoodsID[0]</t>
+  </si>
+  <si>
+    <t>Num[0]</t>
+  </si>
+  <si>
+    <t>Probability[0]</t>
+  </si>
+  <si>
+    <t>GoodsID[1]</t>
+  </si>
+  <si>
+    <t>Num[1]</t>
+  </si>
+  <si>
+    <t>Probability[1]</t>
+  </si>
+  <si>
+    <t>GoodsID[2]</t>
+  </si>
+  <si>
+    <t>Num[2]</t>
+  </si>
+  <si>
+    <t>Probability[2]</t>
   </si>
   <si>
     <t>string</t>
@@ -66,42 +84,6 @@
   </si>
   <si>
     <t>uint32</t>
-  </si>
-  <si>
-    <t>奖励总数</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>是否可重复</t>
-  </si>
-  <si>
-    <t>物品1id</t>
-  </si>
-  <si>
-    <t>物品1数量</t>
-  </si>
-  <si>
-    <t>物品1概率</t>
-  </si>
-  <si>
-    <t>物品2id</t>
-  </si>
-  <si>
-    <t>物品2数量</t>
-  </si>
-  <si>
-    <t>物品2概率</t>
-  </si>
-  <si>
-    <t>物品3id</t>
-  </si>
-  <si>
-    <t>物品3数量</t>
-  </si>
-  <si>
-    <t>物品3概率</t>
   </si>
   <si>
     <t>Box01</t>
@@ -160,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
     <font>
@@ -174,7 +156,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -182,6 +163,7 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
@@ -203,17 +185,54 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF3F3F76"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -225,56 +244,19 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -286,13 +268,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="等线"/>
@@ -300,40 +314,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -348,31 +330,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -384,151 +510,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -539,6 +521,45 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -566,30 +587,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -605,17 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -630,25 +621,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -657,145 +639,142 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="29" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -803,9 +782,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1130,280 +1111,280 @@
   <sheetPr/>
   <dimension ref="A1:W14"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="6.375" customWidth="1"/>
-    <col min="2" max="2" width="8.875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
-    <col min="4" max="4" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="9.625" customWidth="1"/>
-    <col min="6" max="6" width="9.875" customWidth="1"/>
-    <col min="7" max="7" width="12" customWidth="1"/>
-    <col min="8" max="8" width="9.625" customWidth="1"/>
-    <col min="9" max="9" width="9.875" customWidth="1"/>
-    <col min="10" max="10" width="12" customWidth="1"/>
-    <col min="11" max="11" width="9.625" customWidth="1"/>
-    <col min="12" max="12" width="9.875" customWidth="1"/>
-    <col min="13" max="13" width="12" customWidth="1"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.375" customWidth="1"/>
+    <col min="4" max="4" width="11.5" customWidth="1"/>
+    <col min="5" max="5" width="12" customWidth="1"/>
+    <col min="6" max="6" width="10.375" customWidth="1"/>
+    <col min="7" max="7" width="14" customWidth="1"/>
+    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="9" max="9" width="10.375" customWidth="1"/>
+    <col min="10" max="10" width="14" customWidth="1"/>
+    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="10.375" customWidth="1"/>
+    <col min="13" max="13" width="14" customWidth="1"/>
     <col min="20" max="22" width="8.625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="4" t="s">
-        <v>12</v>
+      <c r="H1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="L1" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="M1" s="3" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="2" ht="15.75" spans="1:13">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="I2" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="D2" s="5" t="s">
+      <c r="J2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="K2" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>16</v>
+      <c r="L2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" ht="15.75" spans="1:13">
-      <c r="A3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
+      <c r="A3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="B3" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="J3" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>28</v>
+      <c r="G3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>22</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:13">
-      <c r="A4" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="B4" s="6">
+      <c r="A4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="5">
         <v>1</v>
       </c>
-      <c r="C4" s="7">
+      <c r="C4" s="6">
         <v>1400</v>
       </c>
-      <c r="D4" s="6">
+      <c r="D4" s="5">
         <v>1</v>
       </c>
-      <c r="E4" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="7">
+      <c r="E4" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" s="6">
         <v>1000</v>
       </c>
-      <c r="G4" s="7">
+      <c r="G4" s="6">
         <v>5000</v>
       </c>
-      <c r="H4" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I4" s="7">
+      <c r="H4" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="I4" s="6">
         <v>5</v>
       </c>
-      <c r="J4" s="7">
+      <c r="J4" s="6">
         <v>1000</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L4" s="7">
+      <c r="K4" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="6">
         <v>10</v>
       </c>
-      <c r="M4" s="7">
+      <c r="M4" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:13">
-      <c r="A5" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="6">
+      <c r="A5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="5">
         <v>2</v>
       </c>
-      <c r="C5" s="7">
+      <c r="C5" s="6">
         <v>1800</v>
       </c>
-      <c r="D5" s="6">
+      <c r="D5" s="5">
         <v>0</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="F5" s="7">
+      <c r="E5" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="F5" s="6">
         <v>2000</v>
       </c>
-      <c r="G5" s="7">
+      <c r="G5" s="6">
         <v>5000</v>
       </c>
-      <c r="H5" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" s="7">
+      <c r="H5" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="I5" s="6">
         <v>5</v>
       </c>
-      <c r="J5" s="7">
+      <c r="J5" s="6">
         <v>1000</v>
       </c>
-      <c r="K5" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="7">
+      <c r="K5" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="6">
         <v>10</v>
       </c>
-      <c r="M5" s="7">
+      <c r="M5" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="6" ht="17.25" spans="1:13">
-      <c r="A6" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6" s="5">
         <v>3</v>
       </c>
-      <c r="C6" s="7">
+      <c r="C6" s="6">
         <v>2400</v>
       </c>
-      <c r="D6" s="6">
+      <c r="D6" s="5">
         <v>1</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="F6" s="7">
+      <c r="E6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="F6" s="6">
         <v>3000</v>
       </c>
-      <c r="G6" s="7">
+      <c r="G6" s="6">
         <v>5000</v>
       </c>
-      <c r="H6" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="I6" s="7">
+      <c r="H6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" s="6">
         <v>5</v>
       </c>
-      <c r="J6" s="7">
+      <c r="J6" s="6">
         <v>1000</v>
       </c>
-      <c r="K6" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="L6" s="7">
+      <c r="K6" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="L6" s="6">
         <v>10</v>
       </c>
-      <c r="M6" s="7">
+      <c r="M6" s="6">
         <v>100</v>
       </c>
     </row>
     <row r="14" spans="5:23">
-      <c r="E14" s="8"/>
-      <c r="N14" s="8"/>
-      <c r="Q14" s="8"/>
-      <c r="T14" s="8"/>
-      <c r="W14" s="8"/>
+      <c r="E14" s="7"/>
+      <c r="N14" s="7"/>
+      <c r="Q14" s="7"/>
+      <c r="T14" s="7"/>
+      <c r="W14" s="7"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1417,7 +1398,7 @@
   <sheetPr/>
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -1430,23 +1411,23 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="1" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="1" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>0</v>

--- a/examples/datasheet/随机宝箱.xlsx
+++ b/examples/datasheet/随机宝箱.xlsx
@@ -4,40 +4,21 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24465" windowHeight="11790"/>
+    <workbookView windowWidth="25455" windowHeight="11790"/>
   </bookViews>
   <sheets>
     <sheet name="BoxProbabilityDefine" sheetId="1" r:id="rId1"/>
-    <sheet name="@meta" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>ID</t>
   </si>
   <si>
-    <t>奖励总数</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>是否可重复</t>
-  </si>
-  <si>
-    <t>物品id</t>
-  </si>
-  <si>
-    <t>物品数量</t>
-  </si>
-  <si>
-    <t>物品概率</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -74,18 +55,6 @@
     <t>Probability[2]</t>
   </si>
   <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>bool</t>
-  </si>
-  <si>
-    <t>uint32</t>
-  </si>
-  <si>
     <t>Box01</t>
   </si>
   <si>
@@ -120,21 +89,6 @@
   </si>
   <si>
     <t>Soldier3</t>
-  </si>
-  <si>
-    <t>InnerTypeClass</t>
-  </si>
-  <si>
-    <t>ProbabilityGoodsDefine</t>
-  </si>
-  <si>
-    <t>InnerFieldName</t>
-  </si>
-  <si>
-    <t>ProbabilityGoods</t>
-  </si>
-  <si>
-    <t>UniqueFields</t>
   </si>
 </sst>
 </file>
@@ -147,16 +101,9 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
+  <fonts count="22">
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -627,10 +574,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -639,33 +586,36 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -675,103 +625,99 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -779,16 +725,10 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1109,329 +1049,202 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:W14"/>
+  <dimension ref="A1:W12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="7.125" customWidth="1"/>
-    <col min="2" max="2" width="9.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.375" customWidth="1"/>
-    <col min="4" max="4" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12" customWidth="1"/>
-    <col min="6" max="6" width="10.375" customWidth="1"/>
-    <col min="7" max="7" width="14" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
-    <col min="9" max="9" width="10.375" customWidth="1"/>
-    <col min="10" max="10" width="14" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
-    <col min="12" max="12" width="10.375" customWidth="1"/>
-    <col min="13" max="13" width="14" customWidth="1"/>
-    <col min="20" max="22" width="8.625" customWidth="1"/>
+    <col min="1" max="1" width="7.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="6" style="1" customWidth="1"/>
+    <col min="3" max="3" width="5.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="7.875" style="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="1" customWidth="1"/>
+    <col min="6" max="6" width="8.125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="14" style="1" customWidth="1"/>
+    <col min="8" max="8" width="12" style="1" customWidth="1"/>
+    <col min="9" max="9" width="8.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="14" style="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="1" customWidth="1"/>
+    <col min="12" max="12" width="8.125" style="1" customWidth="1"/>
+    <col min="13" max="13" width="14" style="1" customWidth="1"/>
+    <col min="14" max="19" width="9" style="1"/>
+    <col min="20" max="22" width="8.625" style="1" customWidth="1"/>
+    <col min="23" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="15.75" spans="1:13">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I1" s="3" t="s">
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="17.25" spans="1:13">
+      <c r="A2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="3">
+        <v>1</v>
+      </c>
+      <c r="C2" s="3">
+        <v>1400</v>
+      </c>
+      <c r="D2" s="3">
+        <v>1</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G2" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="3">
         <v>5</v>
       </c>
-      <c r="J1" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="M1" s="3" t="s">
-        <v>6</v>
+      <c r="J2" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="3">
+        <v>10</v>
+      </c>
+      <c r="M2" s="3">
+        <v>100</v>
       </c>
     </row>
-    <row r="2" ht="15.75" spans="1:13">
-      <c r="A2" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:13">
+      <c r="A3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="3">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3">
+        <v>1800</v>
+      </c>
+      <c r="D3" s="3">
         <v>0</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="J2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="L2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" ht="15.75" spans="1:13">
-      <c r="A3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>22</v>
+      <c r="F3" s="3">
+        <v>2000</v>
+      </c>
+      <c r="G3" s="3">
+        <v>5000</v>
       </c>
       <c r="H3" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>22</v>
+      <c r="I3" s="3">
+        <v>5</v>
+      </c>
+      <c r="J3" s="3">
+        <v>1000</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="L3" s="3">
+        <v>10</v>
+      </c>
+      <c r="M3" s="3">
+        <v>100</v>
       </c>
     </row>
     <row r="4" ht="17.25" spans="1:13">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3">
+        <v>3</v>
+      </c>
+      <c r="C4" s="3">
+        <v>2400</v>
+      </c>
+      <c r="D4" s="3">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="3">
+        <v>3000</v>
+      </c>
+      <c r="G4" s="3">
+        <v>5000</v>
+      </c>
+      <c r="H4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="5">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1400</v>
-      </c>
-      <c r="D4" s="5">
-        <v>1</v>
-      </c>
-      <c r="E4" s="6" t="s">
+      <c r="I4" s="3">
+        <v>5</v>
+      </c>
+      <c r="J4" s="3">
+        <v>1000</v>
+      </c>
+      <c r="K4" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="F4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="G4" s="6">
-        <v>5000</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="I4" s="6">
-        <v>5</v>
-      </c>
-      <c r="J4" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="L4" s="6">
+      <c r="L4" s="3">
         <v>10</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="3">
         <v>100</v>
       </c>
     </row>
-    <row r="5" ht="17.25" spans="1:13">
-      <c r="A5" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="B5" s="5">
-        <v>2</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1800</v>
-      </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="6">
-        <v>2000</v>
-      </c>
-      <c r="G5" s="6">
-        <v>5000</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I5" s="6">
-        <v>5</v>
-      </c>
-      <c r="J5" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K5" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="6">
-        <v>10</v>
-      </c>
-      <c r="M5" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="6" ht="17.25" spans="1:13">
-      <c r="A6" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B6" s="5">
-        <v>3</v>
-      </c>
-      <c r="C6" s="6">
-        <v>2400</v>
-      </c>
-      <c r="D6" s="5">
-        <v>1</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="F6" s="6">
-        <v>3000</v>
-      </c>
-      <c r="G6" s="6">
-        <v>5000</v>
-      </c>
-      <c r="H6" s="6" t="s">
-        <v>33</v>
-      </c>
-      <c r="I6" s="6">
-        <v>5</v>
-      </c>
-      <c r="J6" s="6">
-        <v>1000</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>34</v>
-      </c>
-      <c r="L6" s="6">
-        <v>10</v>
-      </c>
-      <c r="M6" s="6">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="14" spans="5:23">
-      <c r="E14" s="7"/>
-      <c r="N14" s="7"/>
-      <c r="Q14" s="7"/>
-      <c r="T14" s="7"/>
-      <c r="W14" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="2" outlineLevelCol="1"/>
-  <cols>
-    <col min="1" max="1" width="16.5" customWidth="1"/>
-    <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="19.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>0</v>
-      </c>
+    <row r="12" spans="5:23">
+      <c r="E12" s="4"/>
+      <c r="N12" s="4"/>
+      <c r="Q12" s="4"/>
+      <c r="T12" s="4"/>
+      <c r="W12" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
